--- a/dp.xlsx
+++ b/dp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mcsworkspace\Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4FD4A6-78ED-448F-883D-6030A5F82544}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11910"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="16">
   <si>
     <t>a</t>
   </si>
@@ -45,12 +46,39 @@
   </si>
   <si>
     <t>0/1 Knapsack problem</t>
+  </si>
+  <si>
+    <t>Matrix multiplication</t>
+  </si>
+  <si>
+    <t>4*2</t>
+  </si>
+  <si>
+    <t>2*3</t>
+  </si>
+  <si>
+    <t>3*5</t>
+  </si>
+  <si>
+    <t>5*3</t>
+  </si>
+  <si>
+    <t>Subset sum problem</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>DP problems should have optimal substructure (problem can be solved using subproblems of lower value) and recurring overlapping subproblems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,268 +438,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-      <c r="R2">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
         <v>4</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>6</v>
-      </c>
-      <c r="U2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>4</v>
-      </c>
-      <c r="R4">
-        <v>5</v>
       </c>
       <c r="S4">
         <v>5</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>5</v>
-      </c>
-      <c r="S5">
-        <v>6</v>
-      </c>
-      <c r="T5">
-        <v>6</v>
-      </c>
-      <c r="U5" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
       <c r="M6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -682,72 +603,489 @@
       <c r="P6">
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>4</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="L8">
         <v>7</v>
       </c>
-      <c r="T6">
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
         <v>8</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U8" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>9</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>69</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" t="s">
+        <v>14</v>
+      </c>
+      <c r="V16" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" t="s">
+        <v>13</v>
+      </c>
+      <c r="U17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17" t="s">
+        <v>13</v>
+      </c>
+      <c r="W17" t="s">
+        <v>13</v>
+      </c>
+      <c r="X17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" t="s">
+        <v>13</v>
+      </c>
+      <c r="U18" t="s">
+        <v>13</v>
+      </c>
+      <c r="V18" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" t="s">
+        <v>13</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" t="s">
+        <v>13</v>
+      </c>
+      <c r="U19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" t="s">
+        <v>13</v>
+      </c>
+      <c r="W19" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/dp.xlsx
+++ b/dp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mcsworkspace\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4FD4A6-78ED-448F-883D-6030A5F82544}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
   <si>
     <t>a</t>
   </si>
@@ -73,13 +72,16 @@
   </si>
   <si>
     <t>DP problems should have optimal substructure (problem can be solved using subproblems of lower value) and recurring overlapping subproblems</t>
+  </si>
+  <si>
+    <t>Coins changing problem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +96,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +114,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -117,16 +131,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,21 +455,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -460,7 +477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -507,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -563,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -619,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -675,7 +692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -731,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -757,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -783,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -791,7 +808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -841,7 +858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -897,7 +914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -950,7 +967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1047,7 +1064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="L19">
         <v>10</v>
       </c>
@@ -1086,6 +1103,213 @@
       </c>
       <c r="X19" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/dp.xlsx
+++ b/dp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
   <si>
     <t>a</t>
   </si>
@@ -75,6 +75,39 @@
   </si>
   <si>
     <t>Coins changing problem</t>
+  </si>
+  <si>
+    <t>Minimum edit distance</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Optimal binary search tree</t>
+  </si>
+  <si>
+    <t>12(16)</t>
+  </si>
+  <si>
+    <t>10(16)</t>
+  </si>
+  <si>
+    <t>8(10)</t>
+  </si>
+  <si>
+    <t>20(16)</t>
+  </si>
+  <si>
+    <t>16(12)</t>
+  </si>
+  <si>
+    <t>26(16)</t>
   </si>
 </sst>
 </file>
@@ -456,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,6 +1345,259 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>12</v>
+      </c>
+      <c r="O29">
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>12</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>16</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+      <c r="P32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>21</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dp.xlsx
+++ b/dp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="33">
   <si>
     <t>a</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>26(16)</t>
+  </si>
+  <si>
+    <t>Longest increasing subsequence</t>
+  </si>
+  <si>
+    <t>Longest palindromic subsequence</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Coin changing problems number of ways</t>
+  </si>
+  <si>
+    <t>Longest common substring</t>
   </si>
 </sst>
 </file>
@@ -489,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1511,7 +1526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1572,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1596,6 +1611,455 @@
       </c>
       <c r="H35" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+      <c r="L39" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="K40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K43" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K44" t="s">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="L48" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>2</v>
+      </c>
+      <c r="P48" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K52" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dp.xlsx
+++ b/dp.xlsx
@@ -506,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
       <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>

--- a/dp.xlsx
+++ b/dp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mcsworkspace\Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23920F8-5284-4B2F-B73E-88423BF6DC80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="42">
   <si>
     <t>a</t>
   </si>
@@ -123,12 +124,39 @@
   </si>
   <si>
     <t>Longest common substring</t>
+  </si>
+  <si>
+    <t>Text Justification</t>
+  </si>
+  <si>
+    <t>Tushar</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Stair case problem</t>
+  </si>
+  <si>
+    <t>n=4</t>
+  </si>
+  <si>
+    <t>k=2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,21 +531,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -525,7 +553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -572,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -628,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -684,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -740,7 +768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -796,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -822,7 +850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -848,7 +876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -856,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -906,7 +934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -962,7 +990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1015,7 +1043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1112,7 +1140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="L19">
         <v>10</v>
       </c>
@@ -1153,12 +1181,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
@@ -1196,7 +1224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1237,7 +1265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1278,7 +1306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1319,7 +1347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8</v>
       </c>
@@ -1360,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1368,7 +1396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>18</v>
       </c>
@@ -1403,7 +1431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +1475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1526,7 +1554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1561,7 +1589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1613,7 +1641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1621,7 +1649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>3</v>
       </c>
@@ -1662,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1709,7 +1737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>3</v>
       </c>
@@ -1744,7 +1772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K42" t="s">
         <v>1</v>
       </c>
@@ -1761,7 +1789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K43" t="s">
         <v>3</v>
       </c>
@@ -1775,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K44" t="s">
         <v>1</v>
       </c>
@@ -1786,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K45" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -1802,7 +1830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>0</v>
       </c>
@@ -1843,7 +1871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1890,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1937,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1984,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K52" t="s">
         <v>2</v>
       </c>
@@ -2010,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K53" t="s">
         <v>3</v>
       </c>
@@ -2036,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K54" t="s">
         <v>4</v>
       </c>
@@ -2060,6 +2088,104 @@
       </c>
       <c r="R54">
         <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="L57" t="s">
+        <v>40</v>
+      </c>
+      <c r="M57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>3</v>
+      </c>
+      <c r="P58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>26</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
+      <c r="P59">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dp.xlsx
+++ b/dp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23920F8-5284-4B2F-B73E-88423BF6DC80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B678F3-79BD-4164-81A1-CDD05C47A5EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
   <si>
     <t>a</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>k=2</t>
+  </si>
+  <si>
+    <t>Tushar's birthday bombs</t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,7 +1874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="K52" t="s">
         <v>2</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="K53" t="s">
         <v>3</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="K54" t="s">
         <v>4</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>34</v>
       </c>
@@ -2124,7 +2127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>6</v>
       </c>
@@ -2156,7 +2159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>16</v>
       </c>
@@ -2186,6 +2189,467 @@
       </c>
       <c r="P59">
         <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>7</v>
+      </c>
+      <c r="J63">
+        <v>8</v>
+      </c>
+      <c r="K63">
+        <v>9</v>
+      </c>
+      <c r="L63">
+        <v>10</v>
+      </c>
+      <c r="M63">
+        <v>11</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>3</v>
+      </c>
+      <c r="T63">
+        <v>4</v>
+      </c>
+      <c r="U63">
+        <v>5</v>
+      </c>
+      <c r="V63">
+        <v>6</v>
+      </c>
+      <c r="W63">
+        <v>7</v>
+      </c>
+      <c r="X63">
+        <v>8</v>
+      </c>
+      <c r="Y63">
+        <v>9</v>
+      </c>
+      <c r="Z63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>8</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>8</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66" s="1">
+        <v>2</v>
+      </c>
+      <c r="O66">
+        <v>6</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>5</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>4</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>2</v>
+      </c>
+      <c r="Y68">
+        <v>2</v>
+      </c>
+      <c r="Z68">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
